--- a/data/trans_orig/Q5419_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>1372</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>317</v>
+        <v>429</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4166</v>
+        <v>3875</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01139641310383316</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002635906496127955</v>
+        <v>0.003559410493862063</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03459900954723201</v>
+        <v>0.0321864192508939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2995</v>
+        <v>3938</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008758678864847437</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0401665660405472</v>
+        <v>0.05282349335018166</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -783,19 +783,19 @@
         <v>2025</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5327</v>
+        <v>5293</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0103876586245472</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003134991026746022</v>
+        <v>0.003233384438781957</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0273223989069522</v>
+        <v>0.02715007140591469</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4692</v>
+        <v>4392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0107997569810011</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03897138625654878</v>
+        <v>0.03647487793423049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8450</v>
+        <v>8830</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02318815674326688</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1133304524601023</v>
+        <v>0.1184237525909765</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -854,19 +854,19 @@
         <v>3029</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8977</v>
+        <v>8829</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01553747982156146</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00319680491233392</v>
+        <v>0.003222870988119844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04604728299382965</v>
+        <v>0.0452887603153137</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2747</v>
+        <v>3247</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004592194910526697</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02281472773303967</v>
+        <v>0.02696810178791318</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -904,19 +904,19 @@
         <v>3656</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1322</v>
+        <v>1552</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7609</v>
+        <v>7576</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04903557015997955</v>
+        <v>0.04903557015997956</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01773167993502508</v>
+        <v>0.0208128845971994</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1020590993899613</v>
+        <v>0.1016124549694631</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -925,19 +925,19 @@
         <v>4209</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1730</v>
+        <v>1799</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8427</v>
+        <v>8479</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02158877219827944</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008874754726217871</v>
+        <v>0.009225330645246698</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04322280615907889</v>
+        <v>0.04349120628108881</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4024</v>
+        <v>4545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009743975169094891</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03342190073195527</v>
+        <v>0.03775138847086079</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -975,19 +975,19 @@
         <v>2226</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5244</v>
+        <v>5218</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02985073420331348</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007858430484006839</v>
+        <v>0.007940714324938387</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07033012061372312</v>
+        <v>0.06998614617870862</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -996,19 +996,19 @@
         <v>3399</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6724</v>
+        <v>6770</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01743344704230786</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006361153388893543</v>
+        <v>0.006273021777987699</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03449000372931652</v>
+        <v>0.03472504898559288</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>116002</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>112244</v>
+        <v>111782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>118591</v>
+        <v>118376</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9634676598355441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9322518488391804</v>
+        <v>0.9284180918514499</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9849703055582092</v>
+        <v>0.9831828538364291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -1046,19 +1046,19 @@
         <v>66295</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60310</v>
+        <v>60305</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70142</v>
+        <v>70157</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8891668600285928</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.808894544519114</v>
+        <v>0.8088189998642008</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9407637607768661</v>
+        <v>0.9409653887782627</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>283</v>
@@ -1067,19 +1067,19 @@
         <v>182298</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>175536</v>
+        <v>174757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>186970</v>
+        <v>187284</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9350526423133041</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9003695399474906</v>
+        <v>0.8963731363260833</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9590158909686086</v>
+        <v>0.9606298462240148</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>3139</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>960</v>
+        <v>978</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9522</v>
+        <v>9133</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02997543069307983</v>
+        <v>0.02997543069307984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009171171430077101</v>
+        <v>0.009335889101362264</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09093242388847846</v>
+        <v>0.08721648632203984</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1192,19 +1192,19 @@
         <v>2927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1004</v>
+        <v>1071</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6435</v>
+        <v>6618</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05285417298417235</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01812705953135852</v>
+        <v>0.01934093778933806</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1161896325063393</v>
+        <v>0.1194900954649803</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1213,19 +1213,19 @@
         <v>6066</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2828</v>
+        <v>2879</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11484</v>
+        <v>11761</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0378900735904897</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01766491833474782</v>
+        <v>0.01797972768817248</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07172901396255014</v>
+        <v>0.07345734984266682</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4147</v>
+        <v>4210</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0129130998911164</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03960107811249705</v>
+        <v>0.04020491054252492</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1279,16 +1279,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4751</v>
+        <v>4226</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.00844595860177378</v>
+        <v>0.008445958601773782</v>
       </c>
       <c r="V11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02967615293517767</v>
+        <v>0.02639849290690454</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>3432</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8853</v>
+        <v>8569</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03277666138302628</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008734140609640919</v>
+        <v>0.008674554809076999</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08454425813644399</v>
+        <v>0.08182855172122416</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1326,19 +1326,19 @@
         <v>2425</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5912</v>
+        <v>5324</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04379050250212967</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01105212979962244</v>
+        <v>0.0115672959109674</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1067353783192483</v>
+        <v>0.09612837951844336</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1347,19 +1347,19 @@
         <v>5858</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2543</v>
+        <v>2522</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10833</v>
+        <v>11400</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03658677551768527</v>
+        <v>0.03658677551768528</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01588559539640476</v>
+        <v>0.01575292663563463</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06766429326258601</v>
+        <v>0.07120646820709481</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>2869</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6759</v>
+        <v>6084</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02739857604754138</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01052577051537333</v>
+        <v>0.01045113540361092</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06454617527027774</v>
+        <v>0.05810252245125444</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1397,19 +1397,19 @@
         <v>2871</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1108</v>
+        <v>1081</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6812</v>
+        <v>6412</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05184244363508998</v>
+        <v>0.05184244363508999</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01999642601271954</v>
+        <v>0.01952250774510597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1229896228709476</v>
+        <v>0.1157680163827364</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1418,19 +1418,19 @@
         <v>5740</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2923</v>
+        <v>2782</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10085</v>
+        <v>9941</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03585465639171051</v>
+        <v>0.03585465639171052</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01825789549347692</v>
+        <v>0.0173736733220427</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06299416606848798</v>
+        <v>0.06208979577893563</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>93923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86791</v>
+        <v>86927</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98581</v>
+        <v>98315</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8969362319852361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.828829853375244</v>
+        <v>0.8301265871586445</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9414249442547568</v>
+        <v>0.9388863095103271</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>84</v>
@@ -1468,19 +1468,19 @@
         <v>47161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41590</v>
+        <v>42438</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50364</v>
+        <v>50689</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.851512880878608</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.750925637572649</v>
+        <v>0.7662359618975517</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9093510761353287</v>
+        <v>0.9152052510540105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>216</v>
@@ -1489,19 +1489,19 @@
         <v>141084</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>134408</v>
+        <v>133457</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>147058</v>
+        <v>147051</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8812225358983405</v>
+        <v>0.8812225358983408</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8395257960517472</v>
+        <v>0.8335842214616118</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9185383081493513</v>
+        <v>0.9184959405194892</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>5022</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2110</v>
+        <v>2567</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9225</v>
+        <v>9387</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04465239992487689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01876124505136987</v>
+        <v>0.02282571508438577</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08201790657365639</v>
+        <v>0.0834602050814898</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1614,19 +1614,19 @@
         <v>5482</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9517</v>
+        <v>9293</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09457389923882656</v>
+        <v>0.09457389923882653</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05078070864401683</v>
+        <v>0.05075105182218673</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1641721705879003</v>
+        <v>0.1603012056894986</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1635,19 +1635,19 @@
         <v>10505</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6684</v>
+        <v>6600</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16843</v>
+        <v>16115</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06163164703356853</v>
+        <v>0.06163164703356852</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03921353605008053</v>
+        <v>0.03872151206596969</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09882198458366968</v>
+        <v>0.09454748893671833</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2753</v>
+        <v>2748</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004053520266447455</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02447924855224064</v>
+        <v>0.02442948092461981</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3829</v>
+        <v>3318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01133381979955205</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06605664741563418</v>
+        <v>0.05723798638295996</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3813</v>
+        <v>3801</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006529687979690267</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02236999390952129</v>
+        <v>0.02230306335892559</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>2541</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6589</v>
+        <v>6080</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.022590537967458</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006058021989930286</v>
+        <v>0.005881593276345695</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05858720805855137</v>
+        <v>0.05405815192197205</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1756,19 +1756,19 @@
         <v>5677</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2641</v>
+        <v>2708</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10018</v>
+        <v>9889</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09792234306538918</v>
+        <v>0.09792234306538915</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04556298022172543</v>
+        <v>0.04670997765559926</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1728218973304234</v>
+        <v>0.1705926671177572</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -1777,19 +1777,19 @@
         <v>8217</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4248</v>
+        <v>4279</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13735</v>
+        <v>13860</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04821231118099115</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02492537988700071</v>
+        <v>0.02510539478818977</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08058458095556169</v>
+        <v>0.08131629613490958</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>4038</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1589</v>
+        <v>1420</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8758</v>
+        <v>8540</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03590336184132922</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01413026242173525</v>
+        <v>0.01262925908298887</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07786708652407411</v>
+        <v>0.07593318062363716</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1827,19 +1827,19 @@
         <v>7708</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4325</v>
+        <v>4298</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12286</v>
+        <v>13033</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1329599150994643</v>
+        <v>0.1329599150994642</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07461391065885953</v>
+        <v>0.07414235625749062</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2119441915634621</v>
+        <v>0.2248309727860462</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -1848,19 +1848,19 @@
         <v>11746</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7412</v>
+        <v>7143</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18431</v>
+        <v>18476</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06891413323110747</v>
+        <v>0.06891413323110748</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04348687642367912</v>
+        <v>0.0419077971769606</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1081367317548089</v>
+        <v>0.1084033225260067</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>100414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>95003</v>
+        <v>93769</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105078</v>
+        <v>104694</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8928001799998885</v>
+        <v>0.8928001799998884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8446873473495404</v>
+        <v>0.8337158769371159</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.93426956519662</v>
+        <v>0.9308490872771704</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -1898,19 +1898,19 @@
         <v>38446</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32944</v>
+        <v>32139</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43680</v>
+        <v>43358</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6632100227967681</v>
+        <v>0.663210022796768</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5682968669401938</v>
+        <v>0.5544144888461826</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7534857561873362</v>
+        <v>0.7479351429755118</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>216</v>
@@ -1919,19 +1919,19 @@
         <v>138860</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>130202</v>
+        <v>130649</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146458</v>
+        <v>146317</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8147122205746425</v>
+        <v>0.8147122205746424</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7639104358703931</v>
+        <v>0.7665333686805013</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8592908970036214</v>
+        <v>0.8584595088272748</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>18677</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12638</v>
+        <v>12522</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27088</v>
+        <v>26925</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07183465896972148</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04860608042799103</v>
+        <v>0.04816219845697546</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1041803976230968</v>
+        <v>0.1035541156440695</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2044,19 +2044,19 @@
         <v>9415</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5915</v>
+        <v>6064</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14136</v>
+        <v>14508</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07193467112787949</v>
+        <v>0.07193467112787948</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04519601544497811</v>
+        <v>0.04632992308869571</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1080057873629469</v>
+        <v>0.1108482176055244</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2065,19 +2065,19 @@
         <v>28092</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20997</v>
+        <v>21596</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36825</v>
+        <v>37314</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07186814594618711</v>
+        <v>0.07186814594618712</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05371757192201286</v>
+        <v>0.0552491752861544</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09420820439436753</v>
+        <v>0.09545923115676382</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>7847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3954</v>
+        <v>3958</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13587</v>
+        <v>14027</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03017846405078706</v>
+        <v>0.03017846405078707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01520741653527015</v>
+        <v>0.01522443737166577</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05225562355856062</v>
+        <v>0.05394727255822836</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2115,19 +2115,19 @@
         <v>3822</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1852</v>
+        <v>1715</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7968</v>
+        <v>7493</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.02920131102188018</v>
+        <v>0.02920131102188017</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01414988529011199</v>
+        <v>0.01310186300827866</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06087954364856456</v>
+        <v>0.05725018228729048</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -2136,19 +2136,19 @@
         <v>11668</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7188</v>
+        <v>6870</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18486</v>
+        <v>18114</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.0298512848249309</v>
+        <v>0.02985128482493091</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01838836534298704</v>
+        <v>0.01757624035973088</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04729289381338383</v>
+        <v>0.04634186001734708</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>12329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7232</v>
+        <v>7272</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18986</v>
+        <v>19502</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04741890812774634</v>
+        <v>0.04741890812774635</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02781292377383442</v>
+        <v>0.02796934474294261</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0730218670586831</v>
+        <v>0.07500701642864233</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -2186,19 +2186,19 @@
         <v>8801</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5363</v>
+        <v>5516</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13553</v>
+        <v>13845</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.06724589489518874</v>
+        <v>0.06724589489518876</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04097763163695563</v>
+        <v>0.04214855188089526</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1035561126594439</v>
+        <v>0.1057833232033577</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -2207,19 +2207,19 @@
         <v>21130</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14990</v>
+        <v>14225</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29083</v>
+        <v>29002</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05405755938269756</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03834776649667004</v>
+        <v>0.03639144676171472</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07440158458025391</v>
+        <v>0.07419539762063364</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>14043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8937</v>
+        <v>8655</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21057</v>
+        <v>21449</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05401031417117839</v>
+        <v>0.0540103141711784</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03437417035171116</v>
+        <v>0.03328749613942663</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08098809611420819</v>
+        <v>0.0824945192625844</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -2257,19 +2257,19 @@
         <v>7534</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4450</v>
+        <v>4418</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12021</v>
+        <v>12395</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05756252797093765</v>
+        <v>0.05756252797093764</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03400241494720184</v>
+        <v>0.03375483132389222</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09184977086959677</v>
+        <v>0.09470293724049171</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -2278,19 +2278,19 @@
         <v>21577</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15274</v>
+        <v>15105</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29748</v>
+        <v>29488</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05519969856307954</v>
+        <v>0.05519969856307955</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0390765138781707</v>
+        <v>0.03864413401473789</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07610354996005697</v>
+        <v>0.07543838274297079</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>207110</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>195502</v>
+        <v>196179</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>217541</v>
+        <v>216893</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7965576546805668</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7519143777882483</v>
+        <v>0.75451633206622</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.836677681586839</v>
+        <v>0.8341857735911452</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>199</v>
@@ -2328,19 +2328,19 @@
         <v>101308</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>94483</v>
+        <v>94587</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>107602</v>
+        <v>107752</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7740555949841139</v>
+        <v>0.7740555949841137</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7219085826774098</v>
+        <v>0.722696515695031</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8221418941822943</v>
+        <v>0.8232909849299213</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>494</v>
@@ -2349,19 +2349,19 @@
         <v>308418</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>295665</v>
+        <v>295147</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>320478</v>
+        <v>320280</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7890233112831049</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7563961530002341</v>
+        <v>0.7550719613596129</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8198767730055562</v>
+        <v>0.8193694045417647</v>
       </c>
     </row>
     <row r="27">
@@ -2453,19 +2453,19 @@
         <v>9614</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5678</v>
+        <v>5816</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15345</v>
+        <v>15285</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09627285957587559</v>
+        <v>0.09627285957587557</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05685601582191492</v>
+        <v>0.05823596757167792</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1536599861833331</v>
+        <v>0.153053816636222</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>82</v>
@@ -2474,19 +2474,19 @@
         <v>35554</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>28225</v>
+        <v>28784</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>44184</v>
+        <v>43710</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1626053523588533</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1290870377939536</v>
+        <v>0.1316434609875783</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2020772599929798</v>
+        <v>0.1999079376908795</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>99</v>
@@ -2495,19 +2495,19 @@
         <v>45168</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>36969</v>
+        <v>37356</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>55221</v>
+        <v>54835</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.141808145165896</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1160680351488785</v>
+        <v>0.1172812532830181</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1733711307460551</v>
+        <v>0.1721576980809343</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>1293</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3564</v>
+        <v>3933</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01294826043952148</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003399173269865175</v>
+        <v>0.003429218406249226</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03568666299937822</v>
+        <v>0.03938839227392633</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -2545,19 +2545,19 @@
         <v>8905</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5651</v>
+        <v>5362</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14091</v>
+        <v>13576</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04072837374795658</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02584500766484492</v>
+        <v>0.0245216688985457</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06444434413130107</v>
+        <v>0.06209046195339574</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -2566,19 +2566,19 @@
         <v>10198</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5928</v>
+        <v>6356</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15830</v>
+        <v>15638</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.03201848289236045</v>
+        <v>0.03201848289236046</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01861226407207264</v>
+        <v>0.01995666515484424</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04970040257408857</v>
+        <v>0.04909514444847748</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>5241</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2209</v>
+        <v>2219</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10030</v>
+        <v>9727</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05247814256588499</v>
+        <v>0.05247814256588498</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02211747980228241</v>
+        <v>0.0222235224440245</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1004373507037782</v>
+        <v>0.09740177129915228</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>27</v>
@@ -2616,19 +2616,19 @@
         <v>14891</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10374</v>
+        <v>9828</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22303</v>
+        <v>20648</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06810622562923699</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04744334624885944</v>
+        <v>0.04494811245378851</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1020019310789148</v>
+        <v>0.09443484432942954</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>34</v>
@@ -2637,19 +2637,19 @@
         <v>20132</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>14195</v>
+        <v>14151</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>27478</v>
+        <v>26922</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.06320635728627182</v>
+        <v>0.06320635728627183</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04456654776786175</v>
+        <v>0.04442709549187154</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08626802364249989</v>
+        <v>0.08452331354679794</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>7811</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4528</v>
+        <v>4296</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>13241</v>
+        <v>12389</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.07821270071744843</v>
+        <v>0.07821270071744842</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04534389853020288</v>
+        <v>0.04301560939534525</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1325928882916524</v>
+        <v>0.1240606975042519</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>44</v>
@@ -2687,19 +2687,19 @@
         <v>21390</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15973</v>
+        <v>15732</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28971</v>
+        <v>27983</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.09782485081756966</v>
+        <v>0.09782485081756967</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0730517611809514</v>
+        <v>0.07194949928199758</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1324992015383439</v>
+        <v>0.1279788623534301</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>58</v>
@@ -2708,19 +2708,19 @@
         <v>29200</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>22830</v>
+        <v>22621</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37248</v>
+        <v>36653</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.09167585909391972</v>
+        <v>0.09167585909391975</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07167675037483197</v>
+        <v>0.07102026658272273</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1169434566865298</v>
+        <v>0.1150756073629557</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>75905</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>68498</v>
+        <v>69171</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>82514</v>
+        <v>82995</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7600880367012696</v>
+        <v>0.7600880367012695</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6859133791400813</v>
+        <v>0.6926497707137718</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8262609123335725</v>
+        <v>0.8310795885471158</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>270</v>
@@ -2758,19 +2758,19 @@
         <v>137911</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>126949</v>
+        <v>127743</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>147310</v>
+        <v>147429</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.6307351974463834</v>
+        <v>0.6307351974463835</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5805995957280203</v>
+        <v>0.5842315854531934</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6737226019465999</v>
+        <v>0.6742657137075091</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>376</v>
@@ -2779,19 +2779,19 @@
         <v>213816</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>200580</v>
+        <v>202254</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>226340</v>
+        <v>226292</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6712911555615518</v>
+        <v>0.6712911555615521</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6297347605913298</v>
+        <v>0.6349889392103331</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7106114190636854</v>
+        <v>0.7104580653803486</v>
       </c>
     </row>
     <row r="33">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2636</v>
+        <v>2603</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3123949391428859</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.804669589099966</v>
+        <v>0.7945659606268588</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>72</v>
@@ -2904,19 +2904,19 @@
         <v>40762</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>31577</v>
+        <v>32066</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>51138</v>
+        <v>51118</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.118077332005286</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0914702982082765</v>
+        <v>0.09288691204225703</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1481346426947269</v>
+        <v>0.1480758321595222</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>74</v>
@@ -2925,19 +2925,19 @@
         <v>41785</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>32984</v>
+        <v>33776</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>51492</v>
+        <v>52111</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1199041120336738</v>
+        <v>0.1199041120336739</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09464832424862227</v>
+        <v>0.09691968707819479</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1477582225929747</v>
+        <v>0.1495345602582536</v>
       </c>
     </row>
     <row r="35">
@@ -2967,19 +2967,19 @@
         <v>16291</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10584</v>
+        <v>11398</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>22506</v>
+        <v>24136</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04719015841722397</v>
+        <v>0.04719015841722398</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03065837077417473</v>
+        <v>0.03301728731469395</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06519368747934579</v>
+        <v>0.06991497029323453</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>30</v>
@@ -2988,19 +2988,19 @@
         <v>16291</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>11175</v>
+        <v>11254</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>23500</v>
+        <v>23714</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04674652368847807</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0320656794218084</v>
+        <v>0.03229475203540946</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06743278659382587</v>
+        <v>0.06804811924352978</v>
       </c>
     </row>
     <row r="36">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2022844312685897</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7214571192530387</v>
+        <v>0.7203229997855616</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>60</v>
@@ -3038,19 +3038,19 @@
         <v>34736</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>26445</v>
+        <v>27141</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>44091</v>
+        <v>43624</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1006220732501289</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07660522688083787</v>
+        <v>0.07862084060466644</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1277213960075678</v>
+        <v>0.1263682493126842</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>61</v>
@@ -3059,19 +3059,19 @@
         <v>35399</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27923</v>
+        <v>27360</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>44386</v>
+        <v>45166</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1015778011844248</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08012673836944698</v>
+        <v>0.07851103082615984</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1273660228441681</v>
+        <v>0.1296047917045642</v>
       </c>
     </row>
     <row r="37">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2187</v>
+        <v>1810</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1580662387414968</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.667446234804704</v>
+        <v>0.5526236564934454</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>70</v>
@@ -3109,19 +3109,19 @@
         <v>38226</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>29709</v>
+        <v>30053</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>48763</v>
+        <v>47816</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1107326199706362</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0860600671518047</v>
+        <v>0.08705706589122687</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1412538343627531</v>
+        <v>0.1385126324590079</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>71</v>
@@ -3130,19 +3130,19 @@
         <v>38744</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30993</v>
+        <v>30704</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>48638</v>
+        <v>48743</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.111177603370317</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08893427178368088</v>
+        <v>0.08810658367393014</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1395688616368639</v>
+        <v>0.1398700814924589</v>
       </c>
     </row>
     <row r="38">
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2707</v>
+        <v>2656</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3272543908470275</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8263712328659629</v>
+        <v>0.8107743771354606</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>403</v>
@@ -3180,19 +3180,19 @@
         <v>215199</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>201784</v>
+        <v>201413</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>228339</v>
+        <v>228302</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.6233778163567248</v>
+        <v>0.623377816356725</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5845182802120527</v>
+        <v>0.583442868582726</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6614420520835698</v>
+        <v>0.6613355046149094</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>405</v>
@@ -3201,19 +3201,19 @@
         <v>216271</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>202126</v>
+        <v>201864</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>229459</v>
+        <v>229767</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6205939597231063</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5800037388712886</v>
+        <v>0.5792529262318993</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6584390079373064</v>
+        <v>0.6593204255189534</v>
       </c>
     </row>
     <row r="39">
@@ -3305,19 +3305,19 @@
         <v>38848</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>29958</v>
+        <v>29403</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>50893</v>
+        <v>50091</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0554393545251349</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04275225246107624</v>
+        <v>0.04196020643326184</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07262823124636236</v>
+        <v>0.07148311785204384</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>191</v>
@@ -3326,19 +3326,19 @@
         <v>94794</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>82363</v>
+        <v>80390</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>108564</v>
+        <v>107923</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1073952996630858</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09331239229935299</v>
+        <v>0.09107651362579787</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1229965957962914</v>
+        <v>0.1222702521564853</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>255</v>
@@ -3347,19 +3347,19 @@
         <v>133642</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>117372</v>
+        <v>118169</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>150475</v>
+        <v>152433</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08440210341701153</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07412692057874995</v>
+        <v>0.07463007944517112</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09503322981714483</v>
+        <v>0.09626992717406949</v>
       </c>
     </row>
     <row r="41">
@@ -3376,19 +3376,19 @@
         <v>12248</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7396</v>
+        <v>7305</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>18672</v>
+        <v>19534</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.01747889411298969</v>
+        <v>0.01747889411298968</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01055418394332949</v>
+        <v>0.01042488729839496</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02664678097389127</v>
+        <v>0.02787600096711142</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>57</v>
@@ -3397,19 +3397,19 @@
         <v>31404</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>23336</v>
+        <v>23592</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>40955</v>
+        <v>40966</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03557860847857138</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02643801703577103</v>
+        <v>0.0267280645659321</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04639980923047641</v>
+        <v>0.04641165321959913</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>75</v>
@@ -3418,19 +3418,19 @@
         <v>43652</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>34124</v>
+        <v>34584</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>55073</v>
+        <v>54428</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02756854758369757</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02155114181784474</v>
+        <v>0.02184142087120985</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03478184982608509</v>
+        <v>0.03437409459341519</v>
       </c>
     </row>
     <row r="42">
@@ -3447,19 +3447,19 @@
         <v>24758</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16866</v>
+        <v>16810</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>34720</v>
+        <v>33522</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.03533225410986115</v>
+        <v>0.03533225410986114</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02406892042345716</v>
+        <v>0.02398852714579591</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04954741863115792</v>
+        <v>0.04783790018523373</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>123</v>
@@ -3468,19 +3468,19 @@
         <v>70187</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>59170</v>
+        <v>58947</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>82960</v>
+        <v>82198</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.07951738797125463</v>
+        <v>0.07951738797125461</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06703555142070264</v>
+        <v>0.06678346719438431</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09398808399147941</v>
+        <v>0.09312533693873475</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>157</v>
@@ -3489,19 +3489,19 @@
         <v>94945</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>80774</v>
+        <v>79222</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>111467</v>
+        <v>109250</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.05996317812411276</v>
+        <v>0.05996317812411278</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05101304971207447</v>
+        <v>0.05003300896683608</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07039727406123347</v>
+        <v>0.06899767388201351</v>
       </c>
     </row>
     <row r="43">
@@ -3518,19 +3518,19 @@
         <v>30452</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>22318</v>
+        <v>22867</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>39496</v>
+        <v>39396</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04345704714765931</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03184916151316322</v>
+        <v>0.03263232539107044</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05636361782187302</v>
+        <v>0.05622098443711275</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>151</v>
@@ -3539,19 +3539,19 @@
         <v>79954</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>68316</v>
+        <v>68275</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>92384</v>
+        <v>92002</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.09058355540121471</v>
+        <v>0.09058355540121474</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07739790912021959</v>
+        <v>0.07735128234840498</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1046657293174011</v>
+        <v>0.1042328801377162</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>199</v>
@@ -3560,19 +3560,19 @@
         <v>110406</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>96072</v>
+        <v>94957</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>125894</v>
+        <v>125609</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.0697276350673791</v>
+        <v>0.06972763506737911</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06067499057957532</v>
+        <v>0.05997048579790176</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07950888445866713</v>
+        <v>0.0793289956252126</v>
       </c>
     </row>
     <row r="44">
@@ -3589,19 +3589,19 @@
         <v>594427</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>578129</v>
+        <v>578132</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>611540</v>
+        <v>610030</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.8482924501043549</v>
+        <v>0.8482924501043547</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8250353319801425</v>
+        <v>0.8250393957857693</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8727146782103344</v>
+        <v>0.8705597817020295</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1148</v>
@@ -3610,19 +3610,19 @@
         <v>606321</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>583430</v>
+        <v>585866</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>625334</v>
+        <v>626863</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6869251484858734</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6609910384687255</v>
+        <v>0.6637505838608637</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7084648255765212</v>
+        <v>0.7101971807219105</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1990</v>
@@ -3631,19 +3631,19 @@
         <v>1200748</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1172151</v>
+        <v>1174407</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1224580</v>
+        <v>1227722</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.758338535807799</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7402780180943853</v>
+        <v>0.7417029029621373</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7733896766697723</v>
+        <v>0.7753738433928659</v>
       </c>
     </row>
     <row r="45">
